--- a/TestData/test data.xlsx
+++ b/TestData/test data.xlsx
@@ -8,16 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jammytan/Documents/STV-Project/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEF7DE-2E6A-E34F-98E5-6F04B55C624A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB58037-D1F2-8C42-BA1A-C271AE17A6D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{0FD658B9-5079-5842-BC6B-31727AF6850F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="2" activeTab="9" xr2:uid="{0FD658B9-5079-5842-BC6B-31727AF6850F}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="home" sheetId="4" r:id="rId2"/>
-    <sheet name="createTasks_x0009_" sheetId="3" r:id="rId3"/>
-    <sheet name="quickAdd" sheetId="2" r:id="rId4"/>
+    <sheet name="review" sheetId="7" r:id="rId2"/>
+    <sheet name="confirm delete" sheetId="8" r:id="rId3"/>
+    <sheet name="calendar" sheetId="5" r:id="rId4"/>
+    <sheet name="time" sheetId="6" r:id="rId5"/>
+    <sheet name="home" sheetId="4" r:id="rId6"/>
+    <sheet name="setting list" sheetId="13" r:id="rId7"/>
+    <sheet name="task due" sheetId="12" r:id="rId8"/>
+    <sheet name="tasks starting" sheetId="14" r:id="rId9"/>
+    <sheet name="task priority" sheetId="15" r:id="rId10"/>
+    <sheet name="task progress" sheetId="16" r:id="rId11"/>
+    <sheet name="search" sheetId="17" r:id="rId12"/>
+    <sheet name="displayed lists" sheetId="9" r:id="rId13"/>
+    <sheet name="edit lists" sheetId="10" r:id="rId14"/>
+    <sheet name="color setting" sheetId="11" r:id="rId15"/>
+    <sheet name="quickAdd" sheetId="2" r:id="rId16"/>
+    <sheet name="create tasks_x0009_" sheetId="3" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">review!$A$1:$A$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +49,7 @@
     <author>J T</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{DCA326BF-D23A-8941-AD0F-8DD6074573D4}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{DCA326BF-D23A-8941-AD0F-8DD6074573D4}">
       <text>
         <r>
           <rPr>
@@ -71,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="304">
   <si>
     <t>component</t>
   </si>
@@ -398,7 +414,7 @@
   </si>
   <si>
     <r>
-      <t>//*[@index='</t>
+      <t>//*[@class='android.widget.RelativeLayout' and @text='</t>
     </r>
     <r>
       <rPr>
@@ -406,7 +422,137 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>0</t>
+      <t>${NAME}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>${NAME}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>cancel_create</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>start_datetime_remove</t>
+  </si>
+  <si>
+    <t>due_time</t>
+  </si>
+  <si>
+    <t>due_datetime_remove</t>
+  </si>
+  <si>
+    <t>all_day_checkbox</t>
+  </si>
+  <si>
+    <t>time_zone_spinner</t>
+  </si>
+  <si>
+    <t>complete_date</t>
+  </si>
+  <si>
+    <t>complete_time</t>
+  </si>
+  <si>
+    <t>complete_datetime_remove</t>
+  </si>
+  <si>
+    <t>calendar_ok</t>
+  </si>
+  <si>
+    <t>calendar_cancel</t>
+  </si>
+  <si>
+    <t>calendar_previous_month</t>
+  </si>
+  <si>
+    <t>calendar_next_month</t>
+  </si>
+  <si>
+    <t>calendar_year_picker</t>
+  </si>
+  <si>
+    <t>calendar_date_picker</t>
+  </si>
+  <si>
+    <t>calendar_pick_date</t>
+  </si>
+  <si>
+    <t>calendar_pick_year</t>
+  </si>
+  <si>
+    <t>time_ok</t>
+  </si>
+  <si>
+    <t>time_cancel</t>
+  </si>
+  <si>
+    <t>time_toggle_mode</t>
+  </si>
+  <si>
+    <t>time_clock_hours</t>
+  </si>
+  <si>
+    <t>time_clock_minutes</t>
+  </si>
+  <si>
+    <t>time_clock_pick_hours</t>
+  </si>
+  <si>
+    <t>time_clock_pick_minutes</t>
+  </si>
+  <si>
+    <t>time_AM_label</t>
+  </si>
+  <si>
+    <t>time_PM_label</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@index='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>${INDEX}</t>
     </r>
     <r>
       <rPr>
@@ -419,6 +565,39 @@
     </r>
   </si>
   <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>status_options_needs_action</t>
+  </si>
+  <si>
+    <t>//*[@text='needs actions']</t>
+  </si>
+  <si>
+    <t>status_options_in_process</t>
+  </si>
+  <si>
+    <t>//*[@text='in process']</t>
+  </si>
+  <si>
+    <t>status_options_done</t>
+  </si>
+  <si>
+    <t>//*[@text='done']</t>
+  </si>
+  <si>
+    <t>status_options_cancelled</t>
+  </si>
+  <si>
+    <t>//*[@text='cancelled']</t>
+  </si>
+  <si>
     <r>
       <t>//*[@index='</t>
     </r>
@@ -428,7 +607,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>1</t>
+      <t>${INDEX}</t>
     </r>
     <r>
       <rPr>
@@ -451,7 +630,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>0</t>
+      <t>${INDEX}</t>
     </r>
     <r>
       <rPr>
@@ -474,7 +653,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>0</t>
+      <t>${INDEX}</t>
     </r>
     <r>
       <rPr>
@@ -489,7 +668,7 @@
   </si>
   <si>
     <r>
-      <t>//*[@class='android.view.View' and @text='</t>
+      <t>//*[@class='android.widget.TextView' and @text='</t>
     </r>
     <r>
       <rPr>
@@ -497,7 +676,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>1</t>
+      <t>${YEAR}</t>
     </r>
     <r>
       <rPr>
@@ -512,7 +691,7 @@
   </si>
   <si>
     <r>
-      <t>//*[@class='android.widget.TextView' and @text='</t>
+      <t>//*[@class='android.view.View' and @text='</t>
     </r>
     <r>
       <rPr>
@@ -520,7 +699,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>2019</t>
+      <t>${DATE}</t>
     </r>
     <r>
       <rPr>
@@ -534,6 +713,12 @@
     </r>
   </si>
   <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
     <r>
       <t>//*[@class='android.widget.RadialTimePickerView$RadialPickerTouchHelper' and @content-desc='</t>
     </r>
@@ -543,7 +728,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>1</t>
+      <t>${HOURS}</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +751,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t>0</t>
+      <t>${MINUTES}</t>
     </r>
     <r>
       <rPr>
@@ -580,8 +765,119 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>//*[@class='android.widget.RelativeLayout' and @text='</t>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>MINUTES</t>
+  </si>
+  <si>
+    <t>time_input_minutes</t>
+  </si>
+  <si>
+    <t>time_input_hours</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='android:id/input_hour']</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='android:id/input_minute']</t>
+  </si>
+  <si>
+    <t>time_AMPM_spinner</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='android:id/am_pm_spinner']</t>
+  </si>
+  <si>
+    <t>time_options_AM</t>
+  </si>
+  <si>
+    <t>time_options_PM</t>
+  </si>
+  <si>
+    <t>//*[@text='AM']</t>
+  </si>
+  <si>
+    <t>//*[@text='PM']</t>
+  </si>
+  <si>
+    <t>priority_spinner</t>
+  </si>
+  <si>
+    <t>percent_complete_bar</t>
+  </si>
+  <si>
+    <t>privacy_spinner</t>
+  </si>
+  <si>
+    <t>URL_editText</t>
+  </si>
+  <si>
+    <t>//*[@index='10]/android.widget.SeekBar</t>
+  </si>
+  <si>
+    <t>//*[@index='11' and contains(@class, 'android.widget.Spinner')]</t>
+  </si>
+  <si>
+    <t>//*[@index='12' and contains(@class, 'android.widget.Spinner')]</t>
+  </si>
+  <si>
+    <t>//*[@index='13' and contains(@class, 'android.widget.EditText')]</t>
+  </si>
+  <si>
+    <t>32,1084 940,1163</t>
+  </si>
+  <si>
+    <t>priority_options_none</t>
+  </si>
+  <si>
+    <t>priority_options_low</t>
+  </si>
+  <si>
+    <t>priority_options_medium</t>
+  </si>
+  <si>
+    <t>priority_options_high</t>
+  </si>
+  <si>
+    <t>//*[@text='none']</t>
+  </si>
+  <si>
+    <t>//*[@text='low']</t>
+  </si>
+  <si>
+    <t>//*[@text='medium']</t>
+  </si>
+  <si>
+    <t>//*[@text='high']</t>
+  </si>
+  <si>
+    <t>privacy_options_not_specified</t>
+  </si>
+  <si>
+    <t>privacy_options_public</t>
+  </si>
+  <si>
+    <t>privacy_options_private</t>
+  </si>
+  <si>
+    <t>privacy_options_confidential</t>
+  </si>
+  <si>
+    <t>//*[@text='confidential']</t>
+  </si>
+  <si>
+    <t>//*[@text='private']</t>
+  </si>
+  <si>
+    <t>//*[@text='public']</t>
+  </si>
+  <si>
+    <t>//*[@text='not specified']</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@text='</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +890,6 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -603,7 +898,136 @@
     </r>
   </si>
   <si>
-    <t>NAME</t>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>return_btn</t>
+  </si>
+  <si>
+    <t>pin_task_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/pin_task']</t>
+  </si>
+  <si>
+    <t>edit_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/edit_task']</t>
+  </si>
+  <si>
+    <t>+1day</t>
+  </si>
+  <si>
+    <t>+1hour</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/floating_action_button']</t>
+  </si>
+  <si>
+    <t>float_done_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/button_add_one_day']</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/button_add_one_hour']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.LinearLayout' and @index='1']</t>
+  </si>
+  <si>
+    <t>location_link</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ImageView' and @index='2']</t>
+  </si>
+  <si>
+    <t>check_list_drag_handle</t>
+  </si>
+  <si>
+    <t>check_list_remove</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/remove_item']</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/add_item']</t>
+  </si>
+  <si>
+    <t>check_list_add_item</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='android:id/text1']</t>
+  </si>
+  <si>
+    <t>URL_link</t>
+  </si>
+  <si>
+    <t>//*[@text='Delete task']</t>
+  </si>
+  <si>
+    <t>delete_btn</t>
+  </si>
+  <si>
+    <t>//*[@text='Send to']</t>
+  </si>
+  <si>
+    <t>send_to_btn</t>
+  </si>
+  <si>
+    <t>ok_btn</t>
+  </si>
+  <si>
+    <t>cancel_btn</t>
+  </si>
+  <si>
+    <t>//*[@text='Create Task']</t>
+  </si>
+  <si>
+    <t>create_teask_btn</t>
+  </si>
+  <si>
+    <t>//*[@text='See all']</t>
+  </si>
+  <si>
+    <t>see_all_btn</t>
+  </si>
+  <si>
+    <t>//*[@text='Displayed Lists']</t>
+  </si>
+  <si>
+    <t>//*[@text='Settings']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.LinearLayout' and @index='2']</t>
+  </si>
+  <si>
+    <t>//*[@text='Refresh']</t>
+  </si>
+  <si>
+    <t>setting_displayed_lists</t>
+  </si>
+  <si>
+    <t>setting_settings</t>
+  </si>
+  <si>
+    <t>setting_show_completed_tasks</t>
+  </si>
+  <si>
+    <t>setting_refresh</t>
+  </si>
+  <si>
+    <t>add_list_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/action_add_local_list']</t>
   </si>
   <si>
     <r>
@@ -620,7 +1044,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -629,89 +1053,8 @@
     </r>
   </si>
   <si>
-    <t>cancel_create</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>start_datetime_remove</t>
-  </si>
-  <si>
-    <t>due_time</t>
-  </si>
-  <si>
-    <t>due_datetime_remove</t>
-  </si>
-  <si>
-    <t>all_day_checkbox</t>
-  </si>
-  <si>
-    <t>time_zone_spinner</t>
-  </si>
-  <si>
-    <t>complete_date</t>
-  </si>
-  <si>
-    <t>complete_time</t>
-  </si>
-  <si>
-    <t>complete_datetime_remove</t>
-  </si>
-  <si>
-    <t>calendar_ok</t>
-  </si>
-  <si>
-    <t>calendar_cancel</t>
-  </si>
-  <si>
-    <t>calendar_previous_month</t>
-  </si>
-  <si>
-    <t>calendar_next_month</t>
-  </si>
-  <si>
-    <t>calendar_year_picker</t>
-  </si>
-  <si>
-    <t>calendar_date_picker</t>
-  </si>
-  <si>
-    <t>calendar_pick_date</t>
-  </si>
-  <si>
-    <t>calendar_pick_year</t>
-  </si>
-  <si>
-    <t>time_ok</t>
-  </si>
-  <si>
-    <t>time_cancel</t>
-  </si>
-  <si>
-    <t>time_toggle_mode</t>
-  </si>
-  <si>
-    <t>time_clock_hours</t>
-  </si>
-  <si>
-    <t>time_clock_minutes</t>
-  </si>
-  <si>
-    <t>time_clock_pick_hours</t>
-  </si>
-  <si>
-    <t>time_clock_pick_minutes</t>
-  </si>
-  <si>
-    <t>time_AM_label</t>
-  </si>
-  <si>
-    <t>time_PM_label</t>
-  </si>
-  <si>
-    <r>
-      <t>//*[@index='</t>
+    <r>
+      <t>//*[@resource-id='org.dmfs.tasks:id/checklist']//*[@index='</t>
     </r>
     <r>
       <rPr>
@@ -724,49 +1067,17 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>']/android.widget.ImageView[@resource-id='org.dmfs.tasks:id/quick_add_task']</t>
-    </r>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>status_options_needs_action</t>
-  </si>
-  <si>
-    <t>//*[@text='needs actions']</t>
-  </si>
-  <si>
-    <t>status_options_in_process</t>
-  </si>
-  <si>
-    <t>//*[@text='in process']</t>
-  </si>
-  <si>
-    <t>status_options_done</t>
-  </si>
-  <si>
-    <t>//*[@text='done']</t>
-  </si>
-  <si>
-    <t>status_options_cancelled</t>
-  </si>
-  <si>
-    <t>//*[@text='cancelled']</t>
-  </si>
-  <si>
-    <r>
-      <t>//*[@index='</t>
+      <t>']//*[@resource-id='android:id/checkbox']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//*[@resource-id='org.dmfs.tasks:id/checklist']//*[@index='</t>
     </r>
     <r>
       <rPr>
@@ -779,17 +1090,17 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>' and @class='android.widget.LinearLayout']</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//*[@index='4']//*[@index='</t>
+      <t>']//*[@resource-id='android:id/title']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//*[@resource-id='org.dmfs.tasks:id/checklist']//*[@index='</t>
     </r>
     <r>
       <rPr>
@@ -802,17 +1113,20 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>']//*[@resource-id='android:id/text1']</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//*[@index='4']//*[@index='</t>
+      <t>']//*[@resource-id='org.dmfs.tasks:id/drag_handle']</t>
+    </r>
+  </si>
+  <si>
+    <t>folder_setting</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@class='android.widget.RelativeLayout' and @index='</t>
     </r>
     <r>
       <rPr>
@@ -825,20 +1139,211 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>']//*[@resource-id='android:id/checkbox']</t>
-    </r>
+      <t>'//*[@resource-id='org.dmfs.tasks:id/btn_settings']</t>
+    </r>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/synced_task_list_button']</t>
+  </si>
+  <si>
+    <t>synchronized_lists</t>
+  </si>
+  <si>
+    <t>list_editText</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/name_setting']</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/color_setting']</t>
+  </si>
+  <si>
+    <t>name_setting</t>
+  </si>
+  <si>
+    <t>color_setting</t>
+  </si>
+  <si>
+    <t>save_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='android:id/button3']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ImageView' and @index='3']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ImageView' and @index='4']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ImageView' and @index='5']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ImageView' and @index='6']</t>
+  </si>
+  <si>
+    <t>color_set_1</t>
+  </si>
+  <si>
+    <t>color_set_2</t>
+  </si>
+  <si>
+    <t>color_set_3</t>
+  </si>
+  <si>
+    <t>color_set_4</t>
+  </si>
+  <si>
+    <t>color_set_5</t>
+  </si>
+  <si>
+    <t>pick_color</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@class='android.widget.GridView']//*[@class='android.widget.LinearLayout' and @index='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>${INDEX}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>delete_list_btn</t>
+  </si>
+  <si>
+    <t>synchronized_cancel</t>
+  </si>
+  <si>
+    <t>synchronized_ok</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.Button' and @text='CANCEL']</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.Button' and @text='OK']</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>next_days</t>
+  </si>
+  <si>
+    <t>someday</t>
+  </si>
+  <si>
+    <t>//*[@text='Today']</t>
+  </si>
+  <si>
+    <t>//*[@text='Tomorrow']</t>
+  </si>
+  <si>
+    <t>//*[@text='Next days']</t>
+  </si>
+  <si>
+    <t>//*[@text='Someday']</t>
+  </si>
+  <si>
+    <t>//*[@text='Already Started']</t>
+  </si>
+  <si>
+    <t>already_started</t>
+  </si>
+  <si>
+    <t>//*[@text='Later']</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>//*[@text='High priority']</t>
+  </si>
+  <si>
+    <t>high_priority</t>
+  </si>
+  <si>
+    <t>medium_priority</t>
+  </si>
+  <si>
+    <t>low_priority</t>
+  </si>
+  <si>
+    <t>no_priority</t>
+  </si>
+  <si>
+    <t>//*[@text='Almost done']</t>
+  </si>
+  <si>
+    <t>almost_done</t>
+  </si>
+  <si>
+    <t>//*[@text='Halfway there']</t>
+  </si>
+  <si>
+    <t>halfway_there</t>
+  </si>
+  <si>
+    <t>way_to_go</t>
+  </si>
+  <si>
+    <t>//*[@text='Way to go']</t>
+  </si>
+  <si>
+    <t>//*[@text='Nothing accomplished']</t>
+  </si>
+  <si>
+    <t>nothing_accomplished</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>//*[@text='Done']</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/search_src_text']</t>
+  </si>
+  <si>
+    <t>search_editText</t>
+  </si>
+  <si>
+    <t>search_close_btn</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='org.dmfs.tasks:id/search_close_btn']</t>
+  </si>
+  <si>
+    <t>delete_record_btn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,6 +1399,13 @@
     <font>
       <sz val="14"/>
       <color theme="8" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,9 +1511,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,9 +1518,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,7 +1529,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,838 +1861,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F9A35-BE5A-E64F-9080-864E7183DD30}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="101.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="40" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="31.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="107.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="40" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16">
+      <c r="H2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16">
+      <c r="H3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="16">
+      <c r="H9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="12" t="s">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="16" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="16"/>
+      <c r="I14" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="16"/>
+      <c r="I15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="15">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="15">
+        <v>4</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="17">
-        <v>2</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="17">
-        <v>3</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="17">
-        <v>4</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="17">
-        <v>4</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16" t="s">
+      <c r="B45" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="16" t="s">
+      <c r="B46" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="16" t="s">
+      <c r="B60" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="16" t="s">
+      <c r="B61" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="16" t="s">
+      <c r="B62" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="16" t="s">
+      <c r="B63" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="16" t="s">
+      <c r="B64" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16" t="s">
+      <c r="B65" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="16" t="s">
+      <c r="B66" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="16" t="s">
+      <c r="B67" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="16" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="16" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="16" t="s">
+      <c r="B71" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="16" t="s">
+      <c r="B72" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="16" t="s">
+      <c r="B73" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="16" t="s">
+      <c r="B74" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="16" t="s">
+      <c r="B75" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="16" t="s">
+      <c r="B76" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="5">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2177,135 +2941,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF6FCC3-78DA-E74D-BF53-4A0FCE774DC3}">
-  <dimension ref="A1:C12"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C5397-FC34-5E46-82F3-9747AE21A64A}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="105" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38" customHeight="1">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="A2" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="19">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="A3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="19">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="A4" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="19">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="A5" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="19">
-      <c r="A6" s="16" t="s">
-        <v>13</v>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="19">
-      <c r="A7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" ht="19">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="19">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="19">
-      <c r="A10" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19">
-      <c r="A11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19">
-      <c r="A12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>117</v>
+      <c r="A7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2313,260 +3030,470 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DC9B6B-62E5-7B4A-80EC-6F20A2BF6C35}">
-  <dimension ref="A1:D27"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2109A0F-B9CF-664A-8DFA-29A2C3E7867E}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348CAD3B-5F81-EB45-B0E4-A318B964A45B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53604592-2150-C948-A745-A2773E7BE451}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="76.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="27.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="113.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="23"/>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>76</v>
+      <c r="A2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>67</v>
+      <c r="A3" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>71</v>
+      <c r="A4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>75</v>
+      <c r="A5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>80</v>
+      <c r="A6" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>81</v>
+      <c r="A7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>94</v>
+      <c r="A8" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D8C052-2675-214D-91B1-14F84C7BFD93}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52FF74E-0FC4-2B4E-BA10-AAF5856542DA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="106.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93932D89-5488-5245-9BC5-188286EB14FA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2574,69 +3501,1333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="64.83203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="25.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DC9B6B-62E5-7B4A-80EC-6F20A2BF6C35}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="31" style="14" customWidth="1"/>
+    <col min="2" max="2" width="78" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103321A1-C480-514F-9128-290C60DCE81A}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="118.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEFDD88-073D-6343-8CCF-86E2F698BCB2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DD33DF-C318-504E-9348-E8BA60F6F3F1}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D06F50E-7773-084C-86EA-9BC6E297921F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="108.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="19">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19">
+      <c r="A12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19">
+      <c r="A13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="19">
+      <c r="A14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="19">
+      <c r="A15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF6FCC3-78DA-E74D-BF53-4A0FCE774DC3}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9553505-29A4-E54E-938A-96C8D69B83EE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F19CD8-B3F2-E949-9D70-5A6AA0F10860}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="44" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>70</v>
+      <c r="A2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>71</v>
+      <c r="A3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>75</v>
+      <c r="A4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>72</v>
+      <c r="A5" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>74</v>
+      <c r="A6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2878AB-5EB7-574E-970E-7609C6C177D9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
